--- a/Results/Sentiwordnet/hasil_lesk_AMBIENCE.xlsx
+++ b/Results/Sentiwordnet/hasil_lesk_AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="275">
   <si>
     <t>id</t>
   </si>
@@ -67,9 +67,6 @@
     <t>1232468:1</t>
   </si>
   <si>
-    <t>1280166:4</t>
-  </si>
-  <si>
     <t>1280179:5</t>
   </si>
   <si>
@@ -385,9 +382,6 @@
     <t>the outdoor atmosphere of sitting on the sidewalk watching the world go by 50 feet away on 6th avenue on a cool evening was wonderful.</t>
   </si>
   <si>
-    <t>traditional french decour was pleasant though the hall was rather noisy - the restaurant was full and we had to raise our voices to be able to maintain a conversation.</t>
-  </si>
-  <si>
     <t>the decor is vibrant and eye-pleasing with several semi-private boths on the right side of the dining hall, which are great for a date.</t>
   </si>
   <si>
@@ -700,18 +694,18 @@
     <t>cool</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
     <t>noisy</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
     <t>lovely</t>
   </si>
   <si>
@@ -724,7 +718,7 @@
     <t>like</t>
   </si>
   <si>
-    <t>excellentthe</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>romantic</t>
@@ -784,9 +778,6 @@
     <t>best</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>gimmick</t>
   </si>
   <si>
@@ -814,6 +805,9 @@
     <t>makes</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
@@ -838,7 +832,7 @@
     <t>upscale</t>
   </si>
   <si>
-    <t>gorgeous</t>
+    <t>ideal</t>
   </si>
   <si>
     <t>negative</t>
@@ -1202,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,16 +1227,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1253,16 +1247,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1273,16 +1267,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1293,16 +1287,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1313,16 +1307,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1333,16 +1327,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1353,16 +1347,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1373,16 +1367,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1393,16 +1387,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1413,16 +1407,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1433,16 +1427,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1453,16 +1447,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1473,16 +1467,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1493,16 +1487,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1513,16 +1507,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1533,16 +1527,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1553,16 +1547,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1573,16 +1567,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1593,16 +1587,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1613,16 +1607,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1633,16 +1627,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1653,16 +1647,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1673,16 +1667,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1693,16 +1687,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1713,16 +1707,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1733,16 +1727,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1753,16 +1747,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1773,16 +1767,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1793,16 +1787,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="E30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1813,16 +1807,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1833,16 +1827,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1853,16 +1847,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1873,16 +1867,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1893,16 +1887,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1913,16 +1907,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E36" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1933,16 +1927,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1953,13 +1944,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="D38" t="s">
+        <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1970,16 +1964,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1990,16 +1984,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2010,16 +2004,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2030,16 +2024,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F42" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2050,16 +2044,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E43" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2070,16 +2064,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2090,16 +2084,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2110,16 +2104,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2130,16 +2124,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2150,16 +2144,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="E48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2170,16 +2164,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2190,16 +2184,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2210,16 +2204,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="E51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2230,16 +2224,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="E52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2250,16 +2244,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2270,16 +2264,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2290,16 +2284,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2310,16 +2304,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2330,16 +2324,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E57" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F57" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2350,16 +2344,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2370,16 +2364,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F59" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2390,16 +2384,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2410,16 +2404,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="E61" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F61" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2430,16 +2424,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2450,16 +2444,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2470,16 +2464,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2490,16 +2484,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E65" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F65" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2510,16 +2504,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E66" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F66" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2530,16 +2524,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2550,16 +2544,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2570,16 +2564,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
         <v>234</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2590,16 +2584,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2610,16 +2604,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2630,16 +2624,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2650,16 +2644,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E73" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F73" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2670,16 +2664,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E74" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2690,16 +2684,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F75" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2710,16 +2704,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="E76" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2730,16 +2724,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E77" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F77" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2750,16 +2744,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E78" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2770,16 +2764,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2790,16 +2784,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E80" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F80" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2810,16 +2804,13 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
-      </c>
-      <c r="D81" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="E81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F81" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2830,13 +2821,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="D82" t="s">
+        <v>216</v>
       </c>
       <c r="E82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2847,16 +2841,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E83" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F83" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2867,16 +2861,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F84" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2887,16 +2881,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2907,16 +2901,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="E86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2927,16 +2921,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="E87" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2947,16 +2941,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2967,16 +2961,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="E89" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F89" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2987,16 +2981,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E90" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3007,16 +3001,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E91" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F91" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3027,16 +3021,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="E92" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F92" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3047,16 +3041,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="E93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3067,16 +3061,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="E94" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F94" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3087,16 +3081,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="E95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F95" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3107,16 +3101,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3127,16 +3121,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E97" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3147,16 +3141,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="E98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3167,16 +3161,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3187,16 +3181,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F100" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3207,16 +3201,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="E101" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3227,16 +3221,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D102" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="E102" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3247,16 +3241,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D103" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F103" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3267,16 +3261,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D104" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E104" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F104" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3287,16 +3281,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F105" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3307,36 +3301,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F106" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" t="s">
-        <v>216</v>
-      </c>
-      <c r="D107" t="s">
-        <v>274</v>
-      </c>
-      <c r="E107" t="s">
-        <v>276</v>
-      </c>
-      <c r="F107" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_lesk_AMBIENCE.xlsx
+++ b/Results/Sentiwordnet/hasil_lesk_AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="294">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>predict</t>
   </si>
   <si>
+    <t>1032695:1</t>
+  </si>
+  <si>
     <t>1041457:6</t>
   </si>
   <si>
@@ -46,6 +49,12 @@
     <t>1102681:1</t>
   </si>
   <si>
+    <t>1126814:0</t>
+  </si>
+  <si>
+    <t>1126886:2</t>
+  </si>
+  <si>
     <t>1153034:2</t>
   </si>
   <si>
@@ -58,6 +67,9 @@
     <t>1199480:0</t>
   </si>
   <si>
+    <t>1221938:3</t>
+  </si>
+  <si>
     <t>1225162:0</t>
   </si>
   <si>
@@ -76,7 +88,10 @@
     <t>1289424:4</t>
   </si>
   <si>
-    <t>1308557:1</t>
+    <t>1300636:4</t>
+  </si>
+  <si>
+    <t>1335154:4</t>
   </si>
   <si>
     <t>1335656:2</t>
@@ -97,6 +112,9 @@
     <t>1357554:4</t>
   </si>
   <si>
+    <t>1367358:3</t>
+  </si>
+  <si>
     <t>1380450:2</t>
   </si>
   <si>
@@ -106,6 +124,9 @@
     <t>1390357:2</t>
   </si>
   <si>
+    <t>1394712:0</t>
+  </si>
+  <si>
     <t>1394712:4</t>
   </si>
   <si>
@@ -157,10 +178,7 @@
     <t>1615322:4</t>
   </si>
   <si>
-    <t>1615322:5</t>
-  </si>
-  <si>
-    <t>1623276:0</t>
+    <t>1632445:3</t>
   </si>
   <si>
     <t>1655521:1</t>
@@ -172,6 +190,9 @@
     <t>1661043:4</t>
   </si>
   <si>
+    <t>1661757:2</t>
+  </si>
+  <si>
     <t>1706644:4</t>
   </si>
   <si>
@@ -205,9 +226,6 @@
     <t>475512:3</t>
   </si>
   <si>
-    <t>476473:2</t>
-  </si>
-  <si>
     <t>485966:1</t>
   </si>
   <si>
@@ -250,9 +268,6 @@
     <t>561054:1</t>
   </si>
   <si>
-    <t>561054:3</t>
-  </si>
-  <si>
     <t>626269:2</t>
   </si>
   <si>
@@ -277,6 +292,9 @@
     <t>744478:1</t>
   </si>
   <si>
+    <t>757762:0</t>
+  </si>
+  <si>
     <t>875139:0</t>
   </si>
   <si>
@@ -295,6 +313,9 @@
     <t>TR#3:1</t>
   </si>
   <si>
+    <t>Y#6:3</t>
+  </si>
+  <si>
     <t>TM#3:3</t>
   </si>
   <si>
@@ -304,12 +325,6 @@
     <t>TR#8:6</t>
   </si>
   <si>
-    <t>CLF#1:0</t>
-  </si>
-  <si>
-    <t>Z#11:4</t>
-  </si>
-  <si>
     <t>TR#2:7</t>
   </si>
   <si>
@@ -331,7 +346,7 @@
     <t>Z#5:4</t>
   </si>
   <si>
-    <t>TM#5:4</t>
+    <t>TVU#6:5</t>
   </si>
   <si>
     <t>TFS#5:8</t>
@@ -346,6 +361,9 @@
     <t>CLF#7:0</t>
   </si>
   <si>
+    <t>everything is always cooked to perfection, the service is excellent, the decor cool and understated.</t>
+  </si>
+  <si>
     <t>the decor is night tho...but they really need to clean that vent in the ceiling...its quite un-appetizing, and kills your effort to make this place look sleek and modern.</t>
   </si>
   <si>
@@ -361,6 +379,12 @@
     <t>this tiny restaurant is as cozy as it gets, with that certain parisian flair.</t>
   </si>
   <si>
+    <t>leon is an east village gem: casual but hip, with well prepared basic french bistro fare, good specials, a warm and lively atmosphere.</t>
+  </si>
+  <si>
+    <t>the service is excellent, the decor is great, and the food is delicious and comes in large portions.</t>
+  </si>
+  <si>
     <t>located at the end of a magnificent block.</t>
   </si>
   <si>
@@ -373,6 +397,9 @@
     <t>not sure where the previous reviewer, lonk, dined, but saul is in a great neighborhood and has great food!</t>
   </si>
   <si>
+    <t>downstairs lounge is always a good attraction</t>
+  </si>
+  <si>
     <t>raga's is a romantic, cozy restaurant.</t>
   </si>
   <si>
@@ -391,7 +418,10 @@
     <t>the place's decor and hidden bathrooms made for a good laugh.</t>
   </si>
   <si>
-    <t>it's boring on the inside, and our sushi was pretty below average... the tuna was soggy and the other rolls had no flavor.</t>
+    <t>i highly recommend cafe st. bart's for their food, the ambience and wonderful service.</t>
+  </si>
+  <si>
+    <t>i didn't complain, i liked the atmosphere so much.</t>
   </si>
   <si>
     <t>ambience is so cute and quaint, good for business although we were there on vacation.</t>
@@ -412,6 +442,9 @@
     <t>it's a nice place to relax and have conversation.</t>
   </si>
   <si>
+    <t>ambience is delightful, service impeccable.</t>
+  </si>
+  <si>
     <t>service was also horrible and the ambience is not that great.</t>
   </si>
   <si>
@@ -421,6 +454,9 @@
     <t>i like the ambience, it's very dark and original.</t>
   </si>
   <si>
+    <t>very affordable and excellent ambient!</t>
+  </si>
+  <si>
     <t>however, i think this place is a good hang out spot.</t>
   </si>
   <si>
@@ -472,10 +508,7 @@
     <t>the seats are uncomfortable if you are sitting against the wall on wooden benches.</t>
   </si>
   <si>
-    <t>it's a rather cramped and busy restaurant and it closes early.</t>
-  </si>
-  <si>
-    <t>patroon features a nice cigar bar and has great staff.</t>
+    <t>the service is good and ambience is good for a date or group outing.</t>
   </si>
   <si>
     <t>i almost hesititate to write a review because the atmosphere was so great and i would hate for it too become to crowded.</t>
@@ -487,6 +520,9 @@
     <t>decor is charming.</t>
   </si>
   <si>
+    <t>the ambience was so fun, and the prices were great, on top of the fact that the food was really tasty.</t>
+  </si>
+  <si>
     <t>we ate out in the back patio, which is worth it as it's cool and the music is hear well there.</t>
   </si>
   <si>
@@ -520,9 +556,6 @@
     <t>if you like your music blasted and the system isnt that great and if you want to pay at least 100 dollar bottle minimun then you'll love it here.</t>
   </si>
   <si>
-    <t>great atmoshere and worth every bit.</t>
-  </si>
-  <si>
     <t>the place was quiet and delightful.</t>
   </si>
   <si>
@@ -565,9 +598,6 @@
     <t>when you're sitting in their main dining room (which has a spectacular, hand-painted high ceiling) you'd never know there was a world outside.</t>
   </si>
   <si>
-    <t>i can't wait for summer, when they serve outside on their gigantic patio.</t>
-  </si>
-  <si>
     <t>the design and atmosphere is just as good.</t>
   </si>
   <si>
@@ -592,6 +622,9 @@
     <t>fabulous decor - makes you feel like you're in a trendy manhattan restaurant, very very good food, cheaply-priced, generally friendly staff, and if you're a manhattanite, or spend most of your time in manhattan, rice avenue will make you feel at home.....very soho/village/upper west side minus the expensive prices and pretentious clientele.....all on roosevelt avenue!</t>
   </si>
   <si>
+    <t>baluchi's has solid food and a nice decor at reasonable prices.</t>
+  </si>
+  <si>
     <t>love the scene first off- the place has a character and nice light to it..very fortunate, location wise.</t>
   </si>
   <si>
@@ -610,6 +643,9 @@
     <t>there is something about their atmosphere that makes me come back nearly every week.</t>
   </si>
   <si>
+    <t>in the summer months, the back garden area is really nice.</t>
+  </si>
+  <si>
     <t>the food was good, the place was clean and affordable.</t>
   </si>
   <si>
@@ -619,12 +655,6 @@
     <t>nice view of river and nyc.</t>
   </si>
   <si>
-    <t>a beautifully designed dreamy egyptian restaurant that gets sceney at night.</t>
-  </si>
-  <si>
-    <t>most of the booths allow you to sit next to eachother without looking like 'that' couple.</t>
-  </si>
-  <si>
     <t>oh speaking of bathroom , the mens bathroom was disgusting.</t>
   </si>
   <si>
@@ -646,7 +676,7 @@
     <t>the atmosphere was pretty nice but had a bit lacking, which it tries to make up for with a crazy scheme of mirrors.</t>
   </si>
   <si>
-    <t>the only thing that strikes you is the decor?(not very pleasant).</t>
+    <t>the dj is awesome, i have been there for my birthday and a bunch of other times with friends and i keep going back.</t>
   </si>
   <si>
     <t>yes, the place is classy and beautiful, but they most certainly target the uber whealthy not the common joe that wants to go all out every once in a while.</t>
@@ -661,7 +691,10 @@
     <t>gorgeous place ideal for a romantic dinner</t>
   </si>
   <si>
-    <t>sleek</t>
+    <t>perfection</t>
+  </si>
+  <si>
+    <t>vent</t>
   </si>
   <si>
     <t>nice</t>
@@ -676,6 +709,12 @@
     <t>cozy</t>
   </si>
   <si>
+    <t>lively</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>magnificent</t>
   </si>
   <si>
@@ -688,19 +727,28 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>cool</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>live</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>pretty</t>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>quaint</t>
   </si>
   <si>
     <t>noisy</t>
@@ -712,19 +760,19 @@
     <t>efficiently</t>
   </si>
   <si>
+    <t>delightful</t>
+  </si>
+  <si>
     <t>cute</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>romantic</t>
   </si>
   <si>
-    <t>elegant</t>
+    <t>refreshing</t>
   </si>
   <si>
     <t>crowded</t>
@@ -766,7 +814,7 @@
     <t>perfect</t>
   </si>
   <si>
-    <t>well</t>
+    <t>ghetto</t>
   </si>
   <si>
     <t>blasted</t>
@@ -775,7 +823,13 @@
     <t>quiet</t>
   </si>
   <si>
-    <t>best</t>
+    <t>delightfully</t>
+  </si>
+  <si>
+    <t>reasonable</t>
+  </si>
+  <si>
+    <t>dim</t>
   </si>
   <si>
     <t>gimmick</t>
@@ -784,9 +838,6 @@
     <t>spectacular</t>
   </si>
   <si>
-    <t>gigantic</t>
-  </si>
-  <si>
     <t>italian</t>
   </si>
   <si>
@@ -799,6 +850,9 @@
     <t>comfortable</t>
   </si>
   <si>
+    <t>friendly</t>
+  </si>
+  <si>
     <t>warm</t>
   </si>
   <si>
@@ -808,9 +862,6 @@
     <t>clean</t>
   </si>
   <si>
-    <t>beautifully</t>
-  </si>
-  <si>
     <t>disgusting</t>
   </si>
   <si>
@@ -826,6 +877,12 @@
     <t>mazing</t>
   </si>
   <si>
+    <t>lacking</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>classy</t>
   </si>
   <si>
@@ -835,10 +892,10 @@
     <t>ideal</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>negative</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,16 +1284,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1247,16 +1304,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1267,16 +1324,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1287,16 +1344,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1307,16 +1364,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1327,16 +1384,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1347,16 +1404,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1367,16 +1424,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1387,16 +1444,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1407,16 +1464,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1427,16 +1484,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1447,16 +1504,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1467,16 +1524,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1487,16 +1544,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1507,16 +1564,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F16" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1527,16 +1584,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F17" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1547,16 +1604,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F18" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1567,16 +1624,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E19" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1587,16 +1644,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F20" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1607,16 +1664,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1627,16 +1684,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1647,16 +1704,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F23" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1667,16 +1724,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1687,16 +1744,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F25" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1707,16 +1764,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F26" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1727,16 +1784,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F27" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1747,16 +1804,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1767,16 +1824,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E29" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1787,16 +1844,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1807,16 +1864,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E31" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1827,16 +1884,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F32" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1847,16 +1904,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1867,16 +1924,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E34" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1887,16 +1944,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1907,16 +1964,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F36" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1927,13 +1984,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>227</v>
       </c>
       <c r="E37" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F37" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1944,16 +2004,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1964,16 +2024,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F39" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1984,16 +2044,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E40" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2004,16 +2064,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="E41" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F41" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2024,16 +2084,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F42" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2044,16 +2104,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E43" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2064,16 +2124,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2084,16 +2141,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F45" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2104,16 +2161,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2124,16 +2181,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F47" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2144,16 +2201,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F48" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2164,16 +2221,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F49" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2184,16 +2241,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F50" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2204,16 +2261,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E51" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F51" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2224,16 +2281,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F52" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2244,16 +2301,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E53" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F53" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2264,16 +2321,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E54" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F54" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2284,16 +2341,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F55" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2304,16 +2361,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F56" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2324,16 +2381,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F57" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2344,16 +2401,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F58" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2364,16 +2421,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="E59" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F59" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2384,16 +2441,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="E60" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2404,16 +2461,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E61" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F61" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2424,16 +2481,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E62" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F62" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2444,16 +2501,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F63" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2464,16 +2521,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="E64" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F64" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2484,16 +2541,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2504,16 +2561,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F66" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2524,16 +2581,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F67" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2544,16 +2601,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F68" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2564,16 +2621,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F69" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2584,16 +2641,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="E70" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F70" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2604,16 +2661,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E71" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F71" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2624,16 +2681,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E72" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F72" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2644,16 +2701,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="E73" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2664,16 +2721,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D74" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E74" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F74" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2684,16 +2741,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E75" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F75" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2704,16 +2761,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E76" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F76" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2724,16 +2781,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D77" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F77" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2744,16 +2801,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E78" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F78" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2764,16 +2821,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E79" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F79" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2784,16 +2841,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E80" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F80" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2804,13 +2861,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>194</v>
+      </c>
+      <c r="D81" t="s">
+        <v>237</v>
       </c>
       <c r="E81" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F81" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2821,16 +2881,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D82" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="E82" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F82" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2841,16 +2901,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F83" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2861,16 +2921,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D84" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="E84" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F84" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2881,16 +2941,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="E85" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F85" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2901,16 +2961,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F86" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2921,16 +2978,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D87" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E87" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F87" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2941,16 +2998,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="E88" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F88" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2961,16 +3018,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D89" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F89" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2981,16 +3038,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F90" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3001,16 +3058,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E91" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F91" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3021,16 +3078,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="E92" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F92" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3041,16 +3098,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D93" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F93" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3061,16 +3118,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E94" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F94" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3081,16 +3138,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F95" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3101,16 +3158,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D96" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="E96" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F96" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3121,16 +3178,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F97" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3141,16 +3198,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D98" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F98" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3161,16 +3218,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D99" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="E99" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F99" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3181,16 +3238,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F100" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3201,16 +3258,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D101" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="E101" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F101" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3221,16 +3278,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D102" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E102" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F102" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3241,16 +3298,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D103" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E103" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F103" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3261,16 +3318,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="E104" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F104" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3281,16 +3338,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D105" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E105" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F105" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3301,16 +3358,116 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E106" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F106" t="s">
-        <v>274</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" t="s">
+        <v>288</v>
+      </c>
+      <c r="E107" t="s">
+        <v>292</v>
+      </c>
+      <c r="F107" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" t="s">
+        <v>289</v>
+      </c>
+      <c r="E108" t="s">
+        <v>292</v>
+      </c>
+      <c r="F108" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" t="s">
+        <v>292</v>
+      </c>
+      <c r="F109" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110" t="s">
+        <v>290</v>
+      </c>
+      <c r="E110" t="s">
+        <v>293</v>
+      </c>
+      <c r="F110" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" t="s">
+        <v>224</v>
+      </c>
+      <c r="D111" t="s">
+        <v>291</v>
+      </c>
+      <c r="E111" t="s">
+        <v>292</v>
+      </c>
+      <c r="F111" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_lesk_AMBIENCE.xlsx
+++ b/Results/Sentiwordnet/hasil_lesk_AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="295">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,9 @@
     <t>1413697:2</t>
   </si>
   <si>
+    <t>1417496:0</t>
+  </si>
+  <si>
     <t>1417496:2</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t>1486041:0</t>
   </si>
   <si>
+    <t>1486041:1</t>
+  </si>
+  <si>
     <t>1506491:2</t>
   </si>
   <si>
@@ -217,9 +223,6 @@
     <t>445960:4</t>
   </si>
   <si>
-    <t>475298:3</t>
-  </si>
-  <si>
     <t>475512:2</t>
   </si>
   <si>
@@ -262,9 +265,6 @@
     <t>535171:1</t>
   </si>
   <si>
-    <t>541532:0</t>
-  </si>
-  <si>
     <t>561054:1</t>
   </si>
   <si>
@@ -346,6 +346,9 @@
     <t>Z#5:4</t>
   </si>
   <si>
+    <t>TM#5:4</t>
+  </si>
+  <si>
     <t>TVU#6:5</t>
   </si>
   <si>
@@ -472,6 +475,9 @@
     <t>the place is so cool and the service is prompt and curtious.</t>
   </si>
   <si>
+    <t>a restaurant that doesn't try to do anything except serve great food with great service in a pleasant atmosphere.</t>
+  </si>
+  <si>
     <t>the dining room is quietly elegant with no music to shout over -- how refreshing!</t>
   </si>
   <si>
@@ -496,6 +502,9 @@
     <t>the atmosphere is nothing special, but it feels like a sushi establishment in tokyo.</t>
   </si>
   <si>
+    <t>the owner and staff are all japanese as well and that adds to the entire ambiance.</t>
+  </si>
+  <si>
     <t>check out the secret back room.</t>
   </si>
   <si>
@@ -547,9 +556,6 @@
     <t>this is a great place to take out-of-towners, and perfect for watching the sunset.</t>
   </si>
   <si>
-    <t>the location is perfect.</t>
-  </si>
-  <si>
     <t>well, this place is so ghetto its not even funny.</t>
   </si>
   <si>
@@ -592,9 +598,6 @@
     <t>not the typical nyc gimmick theme restaurant.</t>
   </si>
   <si>
-    <t>cozy romantic atomosphere with only around 15 tables at most.</t>
-  </si>
-  <si>
     <t>when you're sitting in their main dining room (which has a spectacular, hand-painted high ceiling) you'd never know there was a world outside.</t>
   </si>
   <si>
@@ -676,6 +679,9 @@
     <t>the atmosphere was pretty nice but had a bit lacking, which it tries to make up for with a crazy scheme of mirrors.</t>
   </si>
   <si>
+    <t>the only thing that strikes you is the decor?(not very pleasant).</t>
+  </si>
+  <si>
     <t>the dj is awesome, i have been there for my birthday and a bunch of other times with friends and i keep going back.</t>
   </si>
   <si>
@@ -772,6 +778,9 @@
     <t>romantic</t>
   </si>
   <si>
+    <t>pleasant</t>
+  </si>
+  <si>
     <t>refreshing</t>
   </si>
   <si>
@@ -784,6 +793,9 @@
     <t>enjoyable</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
@@ -796,12 +808,6 @@
     <t>charming</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>pleasant</t>
-  </si>
-  <si>
     <t>unattractive</t>
   </si>
   <si>
@@ -811,61 +817,58 @@
     <t>beautiful</t>
   </si>
   <si>
+    <t>blasted</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>delightfully</t>
+  </si>
+  <si>
+    <t>reasonable</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>gimmick</t>
+  </si>
+  <si>
+    <t>spectacular</t>
+  </si>
+  <si>
+    <t>italian</t>
+  </si>
+  <si>
+    <t>attractive</t>
+  </si>
+  <si>
+    <t>delight</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>ghetto</t>
-  </si>
-  <si>
-    <t>blasted</t>
-  </si>
-  <si>
-    <t>quiet</t>
-  </si>
-  <si>
-    <t>delightfully</t>
-  </si>
-  <si>
-    <t>reasonable</t>
-  </si>
-  <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>gimmick</t>
-  </si>
-  <si>
-    <t>spectacular</t>
-  </si>
-  <si>
-    <t>italian</t>
-  </si>
-  <si>
-    <t>attractive</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>sweet</t>
   </si>
   <si>
     <t>captivated</t>
@@ -1253,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1284,16 +1287,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1304,16 +1307,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1324,16 +1327,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1344,16 +1347,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1364,16 +1367,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1384,16 +1387,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1404,16 +1407,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1424,16 +1427,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1444,16 +1447,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1464,16 +1467,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1484,16 +1487,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1504,16 +1507,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1524,16 +1527,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1544,16 +1547,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1564,16 +1567,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1584,16 +1587,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1604,16 +1607,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1624,16 +1627,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1644,16 +1647,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1664,16 +1667,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1684,16 +1687,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1704,16 +1707,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1724,16 +1727,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1744,16 +1747,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1764,16 +1767,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1784,16 +1787,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1804,16 +1807,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1824,16 +1827,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1844,16 +1847,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1864,16 +1867,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1884,16 +1887,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1904,16 +1907,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1924,16 +1927,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1944,16 +1947,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1964,16 +1967,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1984,16 +1987,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2004,16 +2007,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2024,16 +2027,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2044,10 +2047,10 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E40" t="s">
         <v>293</v>
@@ -2064,16 +2067,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2084,16 +2087,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2104,16 +2107,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2124,7 +2127,10 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>258</v>
       </c>
       <c r="E44" t="s">
         <v>293</v>
@@ -2141,16 +2147,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2161,16 +2164,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2181,13 +2184,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
         <v>293</v>
@@ -2201,16 +2204,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2221,16 +2224,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2241,10 +2244,10 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
         <v>293</v>
@@ -2261,16 +2264,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="E51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F51" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2281,16 +2284,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F52" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2301,16 +2304,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2321,16 +2324,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E54" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F54" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2341,16 +2344,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2361,16 +2364,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2381,16 +2384,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="E57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2401,16 +2404,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="E58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2421,16 +2424,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F59" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2441,10 +2444,10 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
         <v>293</v>
@@ -2461,16 +2464,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2481,16 +2484,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
         <v>264</v>
       </c>
       <c r="E62" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2501,16 +2504,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="E63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2521,16 +2524,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2541,10 +2544,10 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
         <v>293</v>
@@ -2561,13 +2564,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
         <v>293</v>
@@ -2581,16 +2584,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E67" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F67" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2601,16 +2604,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2621,16 +2624,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2641,16 +2644,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2661,16 +2664,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="E71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2681,16 +2684,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2701,10 +2704,10 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E73" t="s">
         <v>293</v>
@@ -2721,16 +2724,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2741,16 +2744,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2761,16 +2764,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2781,16 +2784,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2801,16 +2804,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2821,16 +2824,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2841,16 +2844,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D80" t="s">
         <v>273</v>
       </c>
       <c r="E80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2861,16 +2864,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2881,16 +2884,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D82" t="s">
         <v>274</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F82" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2901,16 +2904,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D83" t="s">
         <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2921,16 +2924,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D84" t="s">
         <v>276</v>
       </c>
       <c r="E84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2941,16 +2944,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
         <v>277</v>
       </c>
       <c r="E85" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F85" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2961,13 +2964,13 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F86" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2978,16 +2981,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2998,16 +3001,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
         <v>278</v>
       </c>
       <c r="E88" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F88" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3018,16 +3021,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F89" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3038,16 +3041,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3058,16 +3061,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3078,16 +3081,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
         <v>279</v>
       </c>
       <c r="E92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3098,16 +3101,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F93" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3118,16 +3121,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3138,16 +3141,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D95" t="s">
         <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3158,16 +3161,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D96" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3178,16 +3181,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D97" t="s">
         <v>281</v>
       </c>
       <c r="E97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3198,16 +3201,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3218,16 +3221,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F99" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3238,16 +3241,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D100" t="s">
         <v>282</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F100" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3258,16 +3261,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D101" t="s">
         <v>283</v>
       </c>
       <c r="E101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3278,16 +3281,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D102" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="E102" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F102" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3298,16 +3301,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D103" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E103" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F103" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3318,16 +3321,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D104" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E104" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F104" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3338,16 +3341,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3358,16 +3361,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E106" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F106" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3378,16 +3381,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D107" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="E107" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3398,16 +3401,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D108" t="s">
         <v>289</v>
       </c>
       <c r="E108" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F108" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3418,16 +3421,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D109" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="E109" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F109" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3438,16 +3441,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D110" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="E110" t="s">
         <v>293</v>
       </c>
       <c r="F110" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3458,16 +3461,36 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D111" t="s">
         <v>291</v>
       </c>
       <c r="E111" t="s">
+        <v>294</v>
+      </c>
+      <c r="F111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>226</v>
+      </c>
+      <c r="D112" t="s">
         <v>292</v>
       </c>
-      <c r="F111" t="s">
-        <v>292</v>
+      <c r="E112" t="s">
+        <v>293</v>
+      </c>
+      <c r="F112" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_lesk_AMBIENCE.xlsx
+++ b/Results/Sentiwordnet/hasil_lesk_AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="296">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>predict</t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
   <si>
     <t>1032695:1</t>
@@ -1256,13 +1259,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,2219 +1281,2555 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G4">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G7">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G15">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G16">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G17">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G21">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G22">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G23">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G24">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G25">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G27">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G28">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G31">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G37">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G38">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G39">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F41" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G46">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F47" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G48">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G49">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G50">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F51" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G51">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F52" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G52">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F53" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G53">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G54">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G55">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F56" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G56">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F57" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F58" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G58">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G59">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F60" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G61">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E62" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F62" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G62">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F63" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F64" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G64">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E65" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G65">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E66" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F66" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G66">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F67" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G67">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G68">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F69" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G69">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F70" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G70">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G71">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G72">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F73" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F74" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F75" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F76" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E77" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F77" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G78">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F79" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G79">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E80" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F80" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F81" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G81">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F82" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G83">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F84" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G84">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F85" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G85">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F86" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F87" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G87">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D88" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F88" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G88">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F89" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G89">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F90" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G90">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E91" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G91">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F92" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E93" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F93" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G93">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G94">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F95" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E96" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F96" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G96">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E97" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F97" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G97">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D98" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F98" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G98">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F99" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G99">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D100" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E100" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F100" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G100">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D101" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E101" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F101" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G101">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D102" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F102" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G102">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D103" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E103" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F103" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E104" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F104" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E105" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F105" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F106" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F107" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G107">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D108" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E108" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F108" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G108">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E109" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F109" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G109">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E110" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F110" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G110">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D111" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E111" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F111" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>294</v>
+      </c>
+      <c r="G111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F112" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="G112">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_lesk_AMBIENCE.xlsx
+++ b/Results/Sentiwordnet/hasil_lesk_AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="297">
   <si>
     <t>id</t>
   </si>
@@ -91,7 +91,7 @@
     <t>1289424:4</t>
   </si>
   <si>
-    <t>1300636:4</t>
+    <t>1308557:1</t>
   </si>
   <si>
     <t>1335154:4</t>
@@ -115,9 +115,6 @@
     <t>1357554:4</t>
   </si>
   <si>
-    <t>1367358:3</t>
-  </si>
-  <si>
     <t>1380450:2</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>1390357:2</t>
   </si>
   <si>
-    <t>1394712:0</t>
-  </si>
-  <si>
     <t>1394712:4</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>1615322:4</t>
   </si>
   <si>
-    <t>1632445:3</t>
-  </si>
-  <si>
     <t>1655521:1</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>1661043:4</t>
   </si>
   <si>
-    <t>1661757:2</t>
-  </si>
-  <si>
     <t>1706644:4</t>
   </si>
   <si>
@@ -226,6 +214,9 @@
     <t>445960:4</t>
   </si>
   <si>
+    <t>475298:3</t>
+  </si>
+  <si>
     <t>475512:2</t>
   </si>
   <si>
@@ -268,6 +259,9 @@
     <t>535171:1</t>
   </si>
   <si>
+    <t>541532:0</t>
+  </si>
+  <si>
     <t>561054:1</t>
   </si>
   <si>
@@ -349,12 +343,6 @@
     <t>Z#5:4</t>
   </si>
   <si>
-    <t>TM#5:4</t>
-  </si>
-  <si>
-    <t>TVU#6:5</t>
-  </si>
-  <si>
     <t>TFS#5:8</t>
   </si>
   <si>
@@ -424,7 +412,7 @@
     <t>the place's decor and hidden bathrooms made for a good laugh.</t>
   </si>
   <si>
-    <t>i highly recommend cafe st. bart's for their food, the ambience and wonderful service.</t>
+    <t>it's boring on the inside, and our sushi was pretty below average... the tuna was soggy and the other rolls had no flavor.</t>
   </si>
   <si>
     <t>i didn't complain, i liked the atmosphere so much.</t>
@@ -448,9 +436,6 @@
     <t>it's a nice place to relax and have conversation.</t>
   </si>
   <si>
-    <t>ambience is delightful, service impeccable.</t>
-  </si>
-  <si>
     <t>service was also horrible and the ambience is not that great.</t>
   </si>
   <si>
@@ -460,9 +445,6 @@
     <t>i like the ambience, it's very dark and original.</t>
   </si>
   <si>
-    <t>very affordable and excellent ambient!</t>
-  </si>
-  <si>
     <t>however, i think this place is a good hang out spot.</t>
   </si>
   <si>
@@ -520,9 +502,6 @@
     <t>the seats are uncomfortable if you are sitting against the wall on wooden benches.</t>
   </si>
   <si>
-    <t>the service is good and ambience is good for a date or group outing.</t>
-  </si>
-  <si>
     <t>i almost hesititate to write a review because the atmosphere was so great and i would hate for it too become to crowded.</t>
   </si>
   <si>
@@ -532,9 +511,6 @@
     <t>decor is charming.</t>
   </si>
   <si>
-    <t>the ambience was so fun, and the prices were great, on top of the fact that the food was really tasty.</t>
-  </si>
-  <si>
     <t>we ate out in the back patio, which is worth it as it's cool and the music is hear well there.</t>
   </si>
   <si>
@@ -559,6 +535,9 @@
     <t>this is a great place to take out-of-towners, and perfect for watching the sunset.</t>
   </si>
   <si>
+    <t>the location is perfect.</t>
+  </si>
+  <si>
     <t>well, this place is so ghetto its not even funny.</t>
   </si>
   <si>
@@ -601,6 +580,9 @@
     <t>not the typical nyc gimmick theme restaurant.</t>
   </si>
   <si>
+    <t>cozy romantic atomosphere with only around 15 tables at most.</t>
+  </si>
+  <si>
     <t>when you're sitting in their main dining room (which has a spectacular, hand-painted high ceiling) you'd never know there was a world outside.</t>
   </si>
   <si>
@@ -682,12 +664,6 @@
     <t>the atmosphere was pretty nice but had a bit lacking, which it tries to make up for with a crazy scheme of mirrors.</t>
   </si>
   <si>
-    <t>the only thing that strikes you is the decor?(not very pleasant).</t>
-  </si>
-  <si>
-    <t>the dj is awesome, i have been there for my birthday and a bunch of other times with friends and i keep going back.</t>
-  </si>
-  <si>
     <t>yes, the place is classy and beautiful, but they most certainly target the uber whealthy not the common joe that wants to go all out every once in a while.</t>
   </si>
   <si>
@@ -700,193 +676,220 @@
     <t>gorgeous place ideal for a romantic dinner</t>
   </si>
   <si>
-    <t>perfection</t>
-  </si>
-  <si>
-    <t>vent</t>
+    <t>excellent|excellent</t>
+  </si>
+  <si>
+    <t>sleek|sleek|un</t>
+  </si>
+  <si>
+    <t>nice|casual</t>
+  </si>
+  <si>
+    <t>||||||</t>
+  </si>
+  <si>
+    <t>parisian|parisian</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>lively</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>magnificent|magnificent</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>great|great|great|great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cozy</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>great|vibrant</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>hidden|hidden</t>
+  </si>
+  <si>
+    <t>soggy</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>good|good</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>lovely</t>
+  </si>
+  <si>
+    <t>simple|bustling</t>
+  </si>
+  <si>
+    <t>cozy|nice</t>
+  </si>
+  <si>
+    <t>nice|nice</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>pleasant</t>
+  </si>
+  <si>
+    <t>elegant</t>
+  </si>
+  <si>
+    <t>small|great</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>enjoyable|enjoyable</t>
+  </si>
+  <si>
+    <t>great|nice</t>
+  </si>
+  <si>
+    <t>special|special|special</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>nice|nice|nice</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>uncomfortable|wooden|wooden</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>charming</t>
+  </si>
+  <si>
+    <t>cool|worth</t>
+  </si>
+  <si>
+    <t>back|personal|pleasant|back|personal</t>
+  </si>
+  <si>
+    <t>nice|loud</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>peaceful</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>funny|funny|funny</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>delish|delish|delish|delish</t>
+  </si>
+  <si>
+    <t>good|reasonable</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>typical|dim</t>
+  </si>
+  <si>
+    <t>little|interior</t>
+  </si>
+  <si>
+    <t>correct|excellent|excellent</t>
+  </si>
+  <si>
+    <t>confortable|perfecttheyre|confortable|perfecttheyre|great</t>
+  </si>
+  <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>italian|italian|italian</t>
+  </si>
+  <si>
+    <t>attractive|attractive</t>
+  </si>
+  <si>
+    <t>outdoor|outdoor</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>trendy|fabulous|sohovillageupper|fabulous|sohovillageupper|fabulous</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>miraculously</t>
-  </si>
-  <si>
-    <t>cozy</t>
-  </si>
-  <si>
-    <t>lively</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>magnificent</t>
-  </si>
-  <si>
-    <t>cramped</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>quaint</t>
-  </si>
-  <si>
-    <t>noisy</t>
-  </si>
-  <si>
-    <t>lovely</t>
-  </si>
-  <si>
-    <t>efficiently</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>pleasant</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>crowded</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>charming</t>
-  </si>
-  <si>
-    <t>unattractive</t>
-  </si>
-  <si>
-    <t>peaceful</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>blasted</t>
-  </si>
-  <si>
-    <t>quiet</t>
-  </si>
-  <si>
-    <t>delightfully</t>
-  </si>
-  <si>
-    <t>reasonable</t>
-  </si>
-  <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>gimmick</t>
-  </si>
-  <si>
-    <t>spectacular</t>
-  </si>
-  <si>
-    <t>italian</t>
-  </si>
-  <si>
-    <t>attractive</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>warm|warm</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>sweet</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>captivated</t>
-  </si>
-  <si>
-    <t>relaxed</t>
-  </si>
-  <si>
-    <t>mazing</t>
-  </si>
-  <si>
-    <t>lacking</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>|||</t>
+  </si>
+  <si>
+    <t>nice|nice|crazy</t>
   </si>
   <si>
     <t>classy</t>
@@ -895,7 +898,7 @@
     <t>upscale</t>
   </si>
   <si>
-    <t>ideal</t>
+    <t>gorgeous</t>
   </si>
   <si>
     <t>positive</t>
@@ -1259,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1293,19 +1296,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F2" t="s">
         <v>295</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1316,19 +1319,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
         <v>295</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1339,19 +1342,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G4">
-        <v>-0.375</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1362,16 +1365,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1385,19 +1388,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1408,19 +1411,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G7">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1431,19 +1434,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
         <v>295</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1454,19 +1457,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1477,19 +1480,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1500,16 +1503,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1523,19 +1526,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1546,19 +1546,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1569,16 +1569,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G14">
         <v>0.75</v>
@@ -1592,16 +1592,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G15">
         <v>-0.25</v>
@@ -1615,19 +1615,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G16">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1638,19 +1635,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G17">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1661,19 +1658,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F18" t="s">
         <v>295</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1684,16 +1681,16 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1707,19 +1704,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G20">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1730,19 +1727,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G21">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1753,19 +1750,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G22">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1776,19 +1773,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F23" t="s">
         <v>295</v>
       </c>
       <c r="G23">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1799,16 +1796,16 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G24">
         <v>-0.375</v>
@@ -1822,16 +1819,16 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G25">
         <v>0.625</v>
@@ -1845,19 +1842,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F26" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G26">
-        <v>0.25</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1868,19 +1865,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F27" t="s">
         <v>295</v>
       </c>
       <c r="G27">
-        <v>-0.25</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1891,19 +1888,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G28">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1914,19 +1911,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="E29" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G29">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1937,19 +1934,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E30" t="s">
         <v>295</v>
       </c>
       <c r="F30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G30">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1960,19 +1957,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G31">
-        <v>0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1983,19 +1980,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G32">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2006,16 +2003,16 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2029,19 +2026,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G34">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2052,19 +2049,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2075,10 +2072,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E36" t="s">
         <v>295</v>
@@ -2087,7 +2084,7 @@
         <v>295</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2098,19 +2095,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F37" t="s">
         <v>295</v>
       </c>
       <c r="G37">
-        <v>-0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2121,19 +2118,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G38">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2144,19 +2141,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G39">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2167,19 +2164,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F40" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2190,19 +2187,16 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
         <v>295</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G41">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2213,19 +2207,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F42" t="s">
         <v>295</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2236,16 +2230,16 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="E43" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2259,19 +2253,19 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D44" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2282,7 +2276,10 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="D45" t="s">
+        <v>256</v>
       </c>
       <c r="E45" t="s">
         <v>295</v>
@@ -2291,7 +2288,7 @@
         <v>295</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2302,19 +2299,19 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F46" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G46">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2325,19 +2322,19 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F47" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G47">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2348,19 +2345,19 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G48">
-        <v>0.667</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2371,19 +2368,19 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G49">
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2394,19 +2391,19 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G50">
-        <v>0.75</v>
+        <v>-1.125</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2417,19 +2414,19 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E51" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F51" t="s">
         <v>295</v>
       </c>
       <c r="G51">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2440,10 +2437,10 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="E52" t="s">
         <v>295</v>
@@ -2452,7 +2449,7 @@
         <v>295</v>
       </c>
       <c r="G52">
-        <v>-0.625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2463,19 +2460,19 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="E53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F53" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G53">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2486,19 +2483,19 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="E54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G54">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2509,19 +2506,19 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E55" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G55">
-        <v>0.875</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2532,19 +2529,19 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
         <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F56" t="s">
         <v>295</v>
       </c>
       <c r="G56">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2555,19 +2552,19 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F57" t="s">
         <v>295</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2578,19 +2575,19 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="E58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G58">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2601,19 +2598,19 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="E59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G59">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2624,19 +2621,19 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G60">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2647,19 +2644,19 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="E61" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F61" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G61">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2670,10 +2667,10 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E62" t="s">
         <v>295</v>
@@ -2682,7 +2679,7 @@
         <v>295</v>
       </c>
       <c r="G62">
-        <v>-0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2693,19 +2690,19 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E63" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F63" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G63">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2716,19 +2713,19 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E64" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F64" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G64">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2739,19 +2736,19 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="E65" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F65" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G65">
-        <v>0.25</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2762,19 +2759,19 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E66" t="s">
         <v>295</v>
       </c>
       <c r="F66" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G66">
-        <v>0.667</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2785,19 +2782,19 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
         <v>295</v>
       </c>
       <c r="F67" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G67">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2808,19 +2805,19 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F68" t="s">
         <v>295</v>
       </c>
       <c r="G68">
-        <v>-0.625</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2831,19 +2828,19 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="E69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G69">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2854,19 +2851,19 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F70" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2877,19 +2874,19 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F71" t="s">
         <v>295</v>
       </c>
       <c r="G71">
-        <v>-0.125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2900,19 +2897,19 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="E72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F72" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G72">
-        <v>0.25</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2923,19 +2920,19 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="E73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F73" t="s">
         <v>295</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2946,16 +2943,16 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s">
         <v>295</v>
       </c>
       <c r="F74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G74">
         <v>0.25</v>
@@ -2969,19 +2966,19 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G75">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2992,19 +2989,19 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F76" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3015,16 +3012,16 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E77" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F77" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3038,19 +3035,19 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E78" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F78" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G78">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3061,19 +3058,19 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D79" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G79">
-        <v>0.125</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3084,16 +3081,16 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D80" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F80" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3107,16 +3104,16 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D81" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="E81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G81">
         <v>0.75</v>
@@ -3130,16 +3127,16 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E82" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F82" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3153,19 +3150,19 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D83" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F83" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G83">
-        <v>0.375</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3176,19 +3173,19 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="E84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F84" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G84">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3199,19 +3196,19 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D85" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E85" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F85" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G85">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3222,16 +3219,19 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="D86" t="s">
+        <v>286</v>
       </c>
       <c r="E86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F86" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3242,19 +3242,19 @@
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="E87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F87" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G87">
-        <v>0.75</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3265,19 +3265,19 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="E88" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F88" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G88">
-        <v>0.625</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3288,19 +3288,19 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D89" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F89" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G89">
-        <v>-0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3311,19 +3311,19 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="E90" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F90" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3334,19 +3334,16 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
-      </c>
-      <c r="D91" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="E91" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F91" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G91">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3357,19 +3354,19 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="E92" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F92" t="s">
         <v>295</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3380,19 +3377,19 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D93" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E93" t="s">
         <v>295</v>
       </c>
       <c r="F93" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G93">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3403,19 +3400,19 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E94" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F94" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G94">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3426,19 +3423,19 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D95" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F95" t="s">
         <v>295</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3449,19 +3446,19 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="E96" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F96" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G96">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3472,19 +3469,19 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D97" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G97">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3495,19 +3492,19 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D98" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="E98" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F98" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G98">
-        <v>0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3518,19 +3515,16 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E99" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F99" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G99">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3541,10 +3535,10 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D100" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E100" t="s">
         <v>295</v>
@@ -3553,7 +3547,7 @@
         <v>295</v>
       </c>
       <c r="G100">
-        <v>-0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3564,19 +3558,16 @@
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="E101" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F101" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G101">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3587,19 +3578,19 @@
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F102" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G102">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3610,19 +3601,16 @@
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>218</v>
-      </c>
-      <c r="D103" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="E103" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F103" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G103">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3633,19 +3621,19 @@
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D104" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E104" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F104" t="s">
         <v>295</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3656,10 +3644,10 @@
         <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D105" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E105" t="s">
         <v>295</v>
@@ -3668,7 +3656,7 @@
         <v>295</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3679,19 +3667,19 @@
         <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D106" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E106" t="s">
         <v>295</v>
       </c>
       <c r="F106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G106">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3702,19 +3690,19 @@
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D107" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="E107" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G107">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3725,110 +3713,18 @@
         <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D108" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E108" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F108" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G108">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" t="s">
-        <v>224</v>
-      </c>
-      <c r="D109" t="s">
-        <v>291</v>
-      </c>
-      <c r="E109" t="s">
-        <v>294</v>
-      </c>
-      <c r="F109" t="s">
-        <v>294</v>
-      </c>
-      <c r="G109">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>114</v>
-      </c>
-      <c r="C110" t="s">
-        <v>225</v>
-      </c>
-      <c r="D110" t="s">
-        <v>267</v>
-      </c>
-      <c r="E110" t="s">
-        <v>294</v>
-      </c>
-      <c r="F110" t="s">
-        <v>294</v>
-      </c>
-      <c r="G110">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" t="s">
-        <v>226</v>
-      </c>
-      <c r="D111" t="s">
-        <v>292</v>
-      </c>
-      <c r="E111" t="s">
-        <v>295</v>
-      </c>
-      <c r="F111" t="s">
-        <v>294</v>
-      </c>
-      <c r="G111">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>116</v>
-      </c>
-      <c r="C112" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112" t="s">
-        <v>293</v>
-      </c>
-      <c r="E112" t="s">
-        <v>294</v>
-      </c>
-      <c r="F112" t="s">
-        <v>294</v>
-      </c>
-      <c r="G112">
         <v>0.75</v>
       </c>
     </row>
